--- a/va_facility_data_2025-02-20/Princeton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Princeton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Princeton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Princeton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R1e1ed5f02c4640d3b8bfff4cbb587d38"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb573ccc273d144ff92450b28f021a69e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f631bedc3f84c738586e6b54a6634a9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc8fcc08bbf354ad18e7af8c640fcfa49"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfda964dc32534bd5956cf64fb0d2d09d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7ed9922d14a144bbb8f327fc2d52c0c0"/>
   </x:sheets>
 </x:workbook>
 </file>
